--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/68/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/68/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2922922922922923</v>
+        <v>0.9495949594959496</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1995.995995995996</v>
+        <v>108.5508550855085</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008408408408408409</v>
+        <v>0.003940394039403941</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6576576576576576</v>
+        <v>0.1601160116011601</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1593.593593593594</v>
+        <v>611.9111911191119</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.2952952952953</v>
+        <v>962.2862286228623</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>914.914914914915</v>
+        <v>24.57875787578758</v>
       </c>
     </row>
   </sheetData>
